--- a/src/main/java/resources/TestData.xlsx
+++ b/src/main/java/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhij\OneDrive\Documents\Eclipse_Workspace\7rmartSuperMarket\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FC64ED-4694-4055-B745-D0B4E642F4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDFF797-E7F7-4CF7-8F81-FE4AE15E3D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{737E5079-8F3D-4668-8C5D-E480B5B7F7E3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{737E5079-8F3D-4668-8C5D-E480B5B7F7E3}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="ManageLocation" sheetId="6" r:id="rId6"/>
     <sheet name="ManageExpense" sheetId="7" r:id="rId7"/>
     <sheet name="ManageDeliveryBoy" sheetId="8" r:id="rId8"/>
+    <sheet name="PushNotification" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>admin</t>
   </si>
@@ -134,6 +135,18 @@
   </si>
   <si>
     <t>akshaya</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Project data</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>SevenRMart Project</t>
   </si>
 </sst>
 </file>
@@ -749,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EEA211-8823-436F-BF3A-226128F57D9C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -813,4 +826,39 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1693AFD-AADD-42B1-BCD4-D287F8FCB0D0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>